--- a/Ai-Web-API/WebApi/ExcelTemplate/题库导入模板.xlsx
+++ b/Ai-Web-API/WebApi/ExcelTemplate/题库导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25596" windowHeight="10500"/>
+    <workbookView windowWidth="28800" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,10 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
-  <si>
-    <t>序号</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>题目类型</t>
   </si>
@@ -501,25 +498,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -670,7 +654,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -682,34 +666,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -794,15 +778,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -818,9 +802,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1133,147 +1114,135 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="55.6388888888889" customWidth="1"/>
-    <col min="4" max="4" width="24.4444444444444" customWidth="1"/>
-    <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="11.8148148148148" customWidth="1"/>
-    <col min="7" max="7" width="38.8148148148148" customWidth="1"/>
-    <col min="8" max="9" width="10.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="55.6388888888889" customWidth="1"/>
+    <col min="3" max="3" width="24.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="11.8148148148148" customWidth="1"/>
+    <col min="6" max="6" width="38.8148148148148" customWidth="1"/>
+    <col min="7" max="8" width="10.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="6">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4">
-        <v>3</v>
-      </c>
-      <c r="F2" s="4">
-        <v>4</v>
-      </c>
-      <c r="G2" s="5">
-        <v>5</v>
-      </c>
-      <c r="H2" s="4" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" ht="15.6" spans="1:8">
+      <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="4">
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="6">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="1:9">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="6">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4">
-        <v>7</v>
-      </c>
-      <c r="F4" s="4">
-        <v>9</v>
-      </c>
-      <c r="G4" s="5">
-        <v>11</v>
-      </c>
-      <c r="H4" s="4" t="s">
+    <row r="5" ht="15.6" spans="1:8">
+      <c r="A5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" ht="15.6" spans="1:9">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -1282,58 +1251,49 @@
       <c r="E5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="4" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="4">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="G7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="4">
         <v>20</v>
       </c>
     </row>
